--- a/medicine/Psychotrope/Glengyle/Glengyle.xlsx
+++ b/medicine/Psychotrope/Glengyle/Glengyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glengyle est une distillerie de whisky située à Campbeltown dans le Mull of Kintyre en Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Glengyle est construite en 1872 par William Mitchell. Comme nombre de distilleries elle subit la grande crise du whisky du début du XXe siècle et est vendue dans les années 1910 puis en 1924
 La distillerie est de nouveau relancée juste avant la Seconde Guerre mondiale par Maurice Bloch qui possédait déjà avec son frère une autre distillerie de Campbeltown, Glen Scotia. La distillerie passe ensuite entre les mains de Henderson Campbell dans les années 1950.
@@ -545,10 +559,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La production a repris en 2004. La distillerie ne fonctionne que deux mois par an, assez pour produire 60 000 litre d’alcool par an. Le 5 mai 2007 après la période minimal de trois années de maturation, Glengyle met en bouteille son premier whisky. Il porte le nom de Kilkerran. Ce nom s’explique de deux façons : premièrement, il est de tradition dans la région de Campbeltown de ne pas utiliser le terme de « Glen » qui signifie « vallée » en gaélique ; deuxièmement, les nouveaux producteurs ne peuvent utiliser le nom de Glengyle, déjà utilisé pour une marque de vatted malt.
-Le 27 août 2008, le propriétaire de la distillerie annonce l’interruption de la production de whisky. Il met en avant un coût de fonctionnement trop élevé, essentiellement à cause du prix des matières premières[1].
+Le 27 août 2008, le propriétaire de la distillerie annonce l’interruption de la production de whisky. Il met en avant un coût de fonctionnement trop élevé, essentiellement à cause du prix des matières premières.
 Embouteillage officiel
 Kilkerran 3 ans
 Embouteillage indépendant</t>
